--- a/Team-Data/2012-13/2-24-2012-13.xlsx
+++ b/Team-Data/2012-13/2-24-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -753,10 +820,10 @@
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -789,10 +856,10 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -807,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.518</v>
+        <v>0.527</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
@@ -872,19 +939,19 @@
         <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.779</v>
@@ -893,22 +960,22 @@
         <v>8.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T3" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
         <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
@@ -917,16 +984,16 @@
         <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -950,13 +1017,13 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM3" t="n">
         <v>26</v>
       </c>
-      <c r="AM3" t="n">
-        <v>27</v>
-      </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>19</v>
@@ -965,25 +1032,25 @@
         <v>22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.579</v>
+        <v>0.589</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
         <v>79.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L4" t="n">
         <v>7.7</v>
@@ -1060,28 +1127,28 @@
         <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O4" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.736</v>
+        <v>0.739</v>
       </c>
       <c r="R4" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S4" t="n">
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1093,67 +1160,67 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>15</v>
@@ -1162,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1171,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
         <v>3</v>
@@ -1180,7 +1247,7 @@
         <v>6</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>28</v>
@@ -1338,13 +1405,13 @@
         <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
         <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.571</v>
+        <v>0.582</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>4.7</v>
       </c>
       <c r="M6" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
         <v>16.9</v>
       </c>
       <c r="P6" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1445,10 +1512,10 @@
         <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,7 +1524,7 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
         <v>19.7</v>
@@ -1466,34 +1533,34 @@
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,19 +1569,19 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
@@ -1523,10 +1590,10 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1594,10 +1661,10 @@
         <v>36.6</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L7" t="n">
         <v>7.2</v>
@@ -1618,19 +1685,19 @@
         <v>0.761</v>
       </c>
       <c r="R7" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S7" t="n">
         <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U7" t="n">
         <v>20.5</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W7" t="n">
         <v>8.199999999999999</v>
@@ -1648,19 +1715,19 @@
         <v>20.3</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="AC7" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>7</v>
@@ -1702,10 +1769,10 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
@@ -1776,7 +1843,7 @@
         <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.454</v>
@@ -1788,16 +1855,16 @@
         <v>19.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O8" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P8" t="n">
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.799</v>
       </c>
       <c r="R8" t="n">
         <v>9.6</v>
@@ -1809,7 +1876,7 @@
         <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>14.1</v>
@@ -1818,34 +1885,34 @@
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD8" t="n">
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
         <v>18</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1875,7 +1942,7 @@
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1887,25 +1954,25 @@
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
@@ -2030,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2048,7 +2115,7 @@
         <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2060,7 +2127,7 @@
         <v>30</v>
       </c>
       <c r="AR9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2276,7 @@
         <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2221,10 +2288,10 @@
         <v>18</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
@@ -2260,10 +2327,10 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2272,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -2304,19 +2371,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.589</v>
+        <v>0.582</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I11" t="n">
         <v>38.1</v>
@@ -2331,49 +2398,49 @@
         <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
         <v>0.39</v>
       </c>
       <c r="O11" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P11" t="n">
         <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R11" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
         <v>33.8</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X11" t="n">
         <v>4.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
         <v>101.2</v>
@@ -2382,16 +2449,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>12</v>
@@ -2406,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
@@ -2418,10 +2485,10 @@
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
         <v>19</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -2570,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2633,7 +2700,7 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2761,7 +2828,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
@@ -2776,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>18</v>
@@ -2788,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2797,10 +2864,10 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -3032,40 +3099,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.491</v>
+        <v>0.482</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M15" t="n">
         <v>24.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
         <v>27.4</v>
@@ -3074,7 +3141,7 @@
         <v>0.695</v>
       </c>
       <c r="R15" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
         <v>33.1</v>
@@ -3083,7 +3150,7 @@
         <v>44.8</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3095,10 +3162,10 @@
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
@@ -3107,10 +3174,10 @@
         <v>102</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3128,19 +3195,19 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3155,7 +3222,7 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
@@ -3170,7 +3237,7 @@
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.441</v>
@@ -3241,31 +3308,31 @@
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q16" t="n">
         <v>0.781</v>
       </c>
       <c r="R16" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="S16" t="n">
         <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
         <v>14.7</v>
@@ -3274,19 +3341,19 @@
         <v>8.9</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z16" t="n">
         <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
         <v>3.8</v>
@@ -3307,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,52 +3389,52 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS16" t="n">
         <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.741</v>
+        <v>0.736</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K17" t="n">
         <v>0.495</v>
@@ -3426,25 +3493,25 @@
         <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P17" t="n">
         <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
         <v>22.3</v>
@@ -3456,28 +3523,28 @@
         <v>8.6</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3531,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3668,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>9</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>24</v>
@@ -3707,19 +3774,19 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
       </c>
       <c r="AY18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ18" t="n">
         <v>9</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3784,22 +3851,22 @@
         <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
         <v>12.8</v>
@@ -3817,7 +3884,7 @@
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
         <v>4.9</v>
@@ -3829,10 +3896,10 @@
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.2</v>
@@ -3847,19 +3914,19 @@
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>27</v>
       </c>
       <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="n">
         <v>25</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,13 +3947,13 @@
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
         <v>20</v>
@@ -3895,10 +3962,10 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.351</v>
+        <v>0.339</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3981,22 +4048,22 @@
         <v>19.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S20" t="n">
         <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W20" t="n">
         <v>6.4</v>
@@ -4008,22 +4075,22 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.5</v>
+        <v>94.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
         <v>24</v>
@@ -4035,7 +4102,7 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
@@ -4059,7 +4126,7 @@
         <v>27</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4080,13 +4147,13 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0.623</v>
+        <v>0.615</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K21" t="n">
         <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O21" t="n">
-        <v>16.3</v>
+        <v>16.1</v>
       </c>
       <c r="P21" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R21" t="n">
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U21" t="n">
         <v>19.6</v>
@@ -4181,7 +4248,7 @@
         <v>11.8</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4193,7 +4260,7 @@
         <v>19.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
         <v>100.1</v>
@@ -4205,7 +4272,7 @@
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -4220,7 +4287,7 @@
         <v>18</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>16</v>
@@ -4235,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -4306,19 +4373,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.732</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
         <v>38.3</v>
@@ -4330,7 +4397,7 @@
         <v>0.483</v>
       </c>
       <c r="L22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M22" t="n">
         <v>19.5</v>
@@ -4339,25 +4406,25 @@
         <v>0.392</v>
       </c>
       <c r="O22" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="P22" t="n">
         <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.833</v>
+        <v>0.832</v>
       </c>
       <c r="R22" t="n">
         <v>10.2</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V22" t="n">
         <v>15.8</v>
@@ -4372,19 +4439,19 @@
         <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4432,16 +4499,16 @@
         <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4617,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,7 +4699,7 @@
         <v>15</v>
       </c>
       <c r="AZ23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" t="n">
-        <v>0.407</v>
+        <v>0.415</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4691,37 +4758,37 @@
         <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L24" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
         <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="R24" t="n">
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
         <v>12.9</v>
@@ -4736,7 +4803,7 @@
         <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
         <v>16.4</v>
@@ -4745,10 +4812,10 @@
         <v>92.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4757,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -4772,13 +4839,13 @@
         <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
@@ -4799,7 +4866,7 @@
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,13 +4875,13 @@
         <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -4852,85 +4919,85 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="n">
         <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>0.316</v>
+        <v>0.321</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L25" t="n">
         <v>5.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.325</v>
       </c>
       <c r="O25" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="P25" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R25" t="n">
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U25" t="n">
         <v>22.2</v>
       </c>
       <c r="V25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X25" t="n">
         <v>5.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="AC25" t="n">
         <v>-5.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
@@ -4951,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4963,7 +5030,7 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4975,16 +5042,16 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV25" t="n">
         <v>14</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>16</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
@@ -4996,13 +5063,13 @@
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
         <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0.464</v>
+        <v>0.455</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5061,7 +5128,7 @@
         <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="N26" t="n">
         <v>0.338</v>
@@ -5079,55 +5146,55 @@
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>21.2</v>
       </c>
       <c r="V26" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA26" t="n">
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>14</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5187,7 +5254,7 @@
         <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5237,28 +5304,28 @@
         <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
         <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.36</v>
+        <v>0.355</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>28.5</v>
@@ -5282,28 +5349,28 @@
         <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH27" t="n">
         <v>19</v>
@@ -5315,7 +5382,7 @@
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
@@ -5324,16 +5391,16 @@
         <v>19</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5360,10 +5427,10 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="n">
         <v>13</v>
       </c>
       <c r="G28" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.79</v>
@@ -5446,7 +5513,7 @@
         <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>24.9</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,13 +5561,13 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5509,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5521,31 +5588,31 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
         <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5679,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
         <v>11</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
         <v>20</v>
@@ -5706,10 +5773,10 @@
         <v>28</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5852,10 +5919,10 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
@@ -5867,7 +5934,7 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>11</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5891,10 +5958,10 @@
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6040,7 +6107,7 @@
         <v>27</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6055,13 +6122,13 @@
         <v>20</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
@@ -6088,10 +6155,10 @@
         <v>13</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-24-2012-13</t>
+          <t>2013-02-24</t>
         </is>
       </c>
     </row>
